--- a/漢字（かんじ）/z.xlsx
+++ b/漢字（かんじ）/z.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D28D1D-B2AA-4F67-B855-487F2128CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DA25B-EC56-46F4-BC5C-6FD180195CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3420" yWindow="1104" windowWidth="11652" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ざ" sheetId="1" r:id="rId1"/>
@@ -52,11 +52,6 @@
   </si>
   <si>
     <t>税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所得税｜しょとくぜい
-外税｜そとぜい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +347,12 @@
   </si>
   <si>
     <t>頭痛｜ずつう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所得税｜しょとくぜい
+外税｜そとぜい
+税金｜ぜいきん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,13 +717,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="89.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -733,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -741,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -760,68 +761,68 @@
     </row>
     <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -837,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -848,35 +849,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -889,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -900,79 +901,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -996,102 +997,102 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/z.xlsx
+++ b/漢字（かんじ）/z.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7DA25B-EC56-46F4-BC5C-6FD180195CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53A6C2-6C7C-4F5D-8A26-A3633DBCF403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ざ" sheetId="1" r:id="rId1"/>
@@ -254,14 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>図面｜ずめん
-図像｜ずぞう
-設計図｜せっけいず
-配置図｜はいちず
-略図｜りゃくず</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在庫｜ざいこ
 在職｜ざいしょく
 存在｜そんざい
@@ -353,6 +345,16 @@
     <t>所得税｜しょとくぜい
 外税｜そとぜい
 税金｜ぜいきん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>図面｜ずめん
+図像｜ずぞう
+設計図｜せっけいず
+配置図｜はいちず
+略図｜りゃくず
+図鑑｜ずかん
+図譜｜ずふ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -822,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -838,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C4610-9366-4F3B-A09E-05A72A5ED9D2}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" activeCellId="1" sqref="I3 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -858,7 +860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="126" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -866,7 +868,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -874,10 +876,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -890,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CF931D-716E-4F13-8643-3EBEBFB8A889}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -918,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -929,7 +931,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -937,10 +939,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.45">
@@ -951,7 +953,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -959,10 +961,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1014,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.45">
@@ -1025,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -1059,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
@@ -1070,7 +1072,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.45">
@@ -1081,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.45">
